--- a/biology/Zoologie/Historis_acheronta/Historis_acheronta.xlsx
+++ b/biology/Zoologie/Historis_acheronta/Historis_acheronta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Historis acheronta, est une espèce de lépidoptères de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Coeini et du genre Historis.
 </t>
@@ -511,122 +523,304 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Historis acheronta a été décrit par l'entomologiste danois Johan Christian Fabricius en 1775 sous le nom initial de Papilio acheronta[1].
-Synonymie
-Papilio acheronta (Fabricius, 1775)[2] protonyme
-Noms vernaculaires
-Il se nomme Dashwing ou Tailed Cecropian en anglais[3],[4].
-Sous-espèces
-Historis acheronta acheronta présent au Brésil, Guyane et au Surinam
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historis acheronta a été décrit par l'entomologiste danois Johan Christian Fabricius en 1775 sous le nom initial de Papilio acheronta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio acheronta (Fabricius, 1775) protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Dashwing ou Tailed Cecropian en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Historis acheronta acheronta présent au Brésil, Guyane et au Surinam
 Synonmie pour cette sous-espèce
-Papilio pherecydes (Stoll, 1780) [5]
+Papilio pherecydes (Stoll, 1780) 
 Historis acheronta cadmus (Cramer, 1775); présent à la Jamaïque
 Synonmie pour cette sous-espèce
-Papilio cadmus (Cramer, 1775)[6]
-Coea cadmus (Godman &amp; Salvin, 1884) [7]
+Papilio cadmus (Cramer, 1775)
+Coea cadmus (Godman &amp; Salvin, 1884) 
 Historis acheronta semele (Bates, 1939); présent à Cuba.
 Synonmie pour cette sous-espèce
 Coea acheronta semele (Bates, 1939)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Historis_acheronta</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago est un grand papillon d'une envergure de 75 mm à 80 mm, qui présente un dessus aux ailes antérieures de couleur orange cuivré avec un apex marron foncé orné de cinq à sept taches blanches et des ailes postérieures marron[8],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est un grand papillon d'une envergure de 75 mm à 80 mm, qui présente un dessus aux ailes antérieures de couleur orange cuivré avec un apex marron foncé orné de cinq à sept taches blanches et des ailes postérieures marron,.
 Le revers est plus terne marqué de zébrures marron gris et marron roux.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Historis_acheronta</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vole toute l'année dans le sud de son aire de répartition.
 L'imago est très attiré par les déchets organiques.
-Plantes hôtes
-La chenille d’Historis acheronta se nourrit de plantes du genre Cecropia[1].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Historis_acheronta</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille d’Historis acheronta se nourrit de plantes du genre Cecropia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historis acheronta est présent dans le sud du Texas, au Mexique, en Amérique centrale, à la Jamaïque et à Cuba et en Amérique du Sud dans le bassin amazonien, au Surinam et au Brésil[8],[1].
-Biotope
-Il réside en forêt tropicale[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historis acheronta est présent dans le sud du Texas, au Mexique, en Amérique centrale, à la Jamaïque et à Cuba et en Amérique du Sud dans le bassin amazonien, au Surinam et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_acheronta</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt tropicale.
 </t>
         </is>
       </c>
